--- a/Output_code/Data/Appendix_H_3plus_granted.xlsx
+++ b/Output_code/Data/Appendix_H_3plus_granted.xlsx
@@ -479,25 +479,25 @@
         <v>3.54493087557604</v>
       </c>
       <c r="B2" t="n">
-        <v>1.01112411949317</v>
+        <v>1.03762852502675</v>
       </c>
       <c r="C2" t="n">
-        <v>1.88163169900977</v>
+        <v>1.83803195190704</v>
       </c>
       <c r="D2" t="n">
-        <v>5.20823005214231</v>
+        <v>5.25182979924504</v>
       </c>
       <c r="E2" t="n">
-        <v>1.56312760136942</v>
+        <v>1.51117896652361</v>
       </c>
       <c r="F2" t="n">
-        <v>5.52673414978265</v>
+        <v>5.57868278462846</v>
       </c>
       <c r="G2" t="n">
-        <v>0.940275143761624</v>
+        <v>0.871999795107135</v>
       </c>
       <c r="H2" t="n">
-        <v>6.14958660739045</v>
+        <v>6.21786195604494</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -520,25 +520,25 @@
         <v>1.42617349970291</v>
       </c>
       <c r="B3" t="n">
-        <v>0.837889878338538</v>
+        <v>0.835714645118019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0478446498360168</v>
+        <v>0.0514229084837696</v>
       </c>
       <c r="D3" t="n">
-        <v>2.80450234956981</v>
+        <v>2.80092409092205</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.216090661840623</v>
+        <v>-0.211827204728406</v>
       </c>
       <c r="F3" t="n">
-        <v>3.06843766124645</v>
+        <v>3.06417420413423</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.732230826897162</v>
+        <v>-0.726627426121107</v>
       </c>
       <c r="H3" t="n">
-        <v>3.58457782630298</v>
+        <v>3.57897442552693</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -561,25 +561,25 @@
         <v>0.415560358135227</v>
       </c>
       <c r="B4" t="n">
-        <v>1.23784954605559</v>
+        <v>1.20517042210756</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.62070214512621</v>
+        <v>-1.5669449862317</v>
       </c>
       <c r="D4" t="n">
-        <v>2.45182286139667</v>
+        <v>2.39806570250216</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.01062475213372</v>
+        <v>-1.94657366919558</v>
       </c>
       <c r="F4" t="n">
-        <v>2.84174546840417</v>
+        <v>2.77769438546604</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.77314007250396</v>
+        <v>-2.68895864921384</v>
       </c>
       <c r="H4" t="n">
-        <v>3.60426078877442</v>
+        <v>3.52007936548429</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -602,25 +602,25 @@
         <v>134.264714559207</v>
       </c>
       <c r="B5" t="n">
-        <v>41.0919242052655</v>
+        <v>39.824078206634</v>
       </c>
       <c r="C5" t="n">
-        <v>66.6684992415449</v>
+        <v>68.7541059092937</v>
       </c>
       <c r="D5" t="n">
-        <v>201.860929876868</v>
+        <v>199.77532320912</v>
       </c>
       <c r="E5" t="n">
-        <v>53.7245431168863</v>
+        <v>56.209521274204</v>
       </c>
       <c r="F5" t="n">
-        <v>214.804886001527</v>
+        <v>212.319907844209</v>
       </c>
       <c r="G5" t="n">
-        <v>28.4119178064428</v>
+        <v>31.6778890989174</v>
       </c>
       <c r="H5" t="n">
-        <v>240.11751131197</v>
+        <v>236.851540019496</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -643,25 +643,25 @@
         <v>62.8167358229599</v>
       </c>
       <c r="B6" t="n">
-        <v>24.3428476517143</v>
+        <v>23.5157833399185</v>
       </c>
       <c r="C6" t="n">
-        <v>22.7727514358898</v>
+        <v>24.1332722287939</v>
       </c>
       <c r="D6" t="n">
-        <v>102.86072021003</v>
+        <v>101.500199417126</v>
       </c>
       <c r="E6" t="n">
-        <v>15.1047544255998</v>
+        <v>16.7258004767196</v>
       </c>
       <c r="F6" t="n">
-        <v>110.52871722032</v>
+        <v>108.9076711692</v>
       </c>
       <c r="G6" t="n">
-        <v>0.109560272143732</v>
+        <v>2.2400779393298</v>
       </c>
       <c r="H6" t="n">
-        <v>125.523911373776</v>
+        <v>123.39339370659</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -684,25 +684,25 @@
         <v>53.462962962963</v>
       </c>
       <c r="B7" t="n">
-        <v>34.9433320781602</v>
+        <v>35.6879896658795</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.01881830561064</v>
+        <v>-5.24378003740875</v>
       </c>
       <c r="D7" t="n">
-        <v>110.944744231537</v>
+        <v>112.169705963335</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.0259679102311</v>
+        <v>-16.4854967821608</v>
       </c>
       <c r="F7" t="n">
-        <v>121.951893836157</v>
+        <v>123.411422708087</v>
       </c>
       <c r="G7" t="n">
-        <v>-36.5510604703778</v>
+        <v>-38.4692984163425</v>
       </c>
       <c r="H7" t="n">
-        <v>143.476986396304</v>
+        <v>145.395224342268</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
@@ -725,25 +725,25 @@
         <v>4.58073627718671</v>
       </c>
       <c r="B8" t="n">
-        <v>1.09176056963347</v>
+        <v>1.03293781324959</v>
       </c>
       <c r="C8" t="n">
-        <v>2.78479014013965</v>
+        <v>2.88155357439113</v>
       </c>
       <c r="D8" t="n">
-        <v>6.37668241423376</v>
+        <v>6.27991897998228</v>
       </c>
       <c r="E8" t="n">
-        <v>2.44088556070511</v>
+        <v>2.55617816321751</v>
       </c>
       <c r="F8" t="n">
-        <v>6.7205869936683</v>
+        <v>6.6052943911559</v>
       </c>
       <c r="G8" t="n">
-        <v>1.7683610498109</v>
+        <v>1.91988847025576</v>
       </c>
       <c r="H8" t="n">
-        <v>7.39311150456251</v>
+        <v>7.24158408411765</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -766,25 +766,25 @@
         <v>4.31263413936185</v>
       </c>
       <c r="B9" t="n">
-        <v>1.2012398025226</v>
+        <v>1.15818751350768</v>
       </c>
       <c r="C9" t="n">
-        <v>2.33659466421217</v>
+        <v>2.40741567964172</v>
       </c>
       <c r="D9" t="n">
-        <v>6.28867361451154</v>
+        <v>6.21785259908199</v>
       </c>
       <c r="E9" t="n">
-        <v>1.95820412641755</v>
+        <v>2.0425866128868</v>
       </c>
       <c r="F9" t="n">
-        <v>6.66706415230616</v>
+        <v>6.5826816658369</v>
       </c>
       <c r="G9" t="n">
-        <v>1.21824040806363</v>
+        <v>1.32914310456607</v>
       </c>
       <c r="H9" t="n">
-        <v>7.40702787066008</v>
+        <v>7.29612517415764</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -807,25 +807,25 @@
         <v>0.547743055555555</v>
       </c>
       <c r="B10" t="n">
-        <v>2.88715737529806</v>
+        <v>2.86414216134032</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.20163082680975</v>
+        <v>-4.16377079984927</v>
       </c>
       <c r="D10" t="n">
-        <v>5.29711693792086</v>
+        <v>5.25925691096038</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.11108540002864</v>
+        <v>-5.06597558067147</v>
       </c>
       <c r="F10" t="n">
-        <v>6.20657151113975</v>
+        <v>6.16146169178258</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.88957434321225</v>
+        <v>-6.83028715205711</v>
       </c>
       <c r="H10" t="n">
-        <v>7.98506045432336</v>
+        <v>7.92577326316822</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
@@ -848,25 +848,25 @@
         <v>0.593584613398735</v>
       </c>
       <c r="B11" t="n">
-        <v>0.147774194320173</v>
+        <v>0.146719682451499</v>
       </c>
       <c r="C11" t="n">
-        <v>0.35049606374205</v>
+        <v>0.35223073576602</v>
       </c>
       <c r="D11" t="n">
-        <v>0.83667316305542</v>
+        <v>0.83493849103145</v>
       </c>
       <c r="E11" t="n">
-        <v>0.303947192531196</v>
+        <v>0.306014035793798</v>
       </c>
       <c r="F11" t="n">
-        <v>0.883222034266274</v>
+        <v>0.881155191003672</v>
       </c>
       <c r="G11" t="n">
-        <v>0.212918288829969</v>
+        <v>0.215634711403674</v>
       </c>
       <c r="H11" t="n">
-        <v>0.974250937967501</v>
+        <v>0.971534515393796</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -889,25 +889,25 @@
         <v>0.439181286549708</v>
       </c>
       <c r="B12" t="n">
-        <v>0.234735781099277</v>
+        <v>0.237548712183368</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0530409266413971</v>
+        <v>0.0484136550080667</v>
       </c>
       <c r="D12" t="n">
-        <v>0.825321646458018</v>
+        <v>0.829948918091349</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0209008444048751</v>
+        <v>-0.0264141893296943</v>
       </c>
       <c r="F12" t="n">
-        <v>0.89926341750429</v>
+        <v>0.90477676242911</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.16549808556203</v>
+        <v>-0.172744196034649</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04386065866144</v>
+        <v>1.05110676913406</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -930,25 +930,25 @@
         <v>-0.195807070430255</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222096917810787</v>
+        <v>0.224720772353315</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.561156500228999</v>
+        <v>-0.565472740951458</v>
       </c>
       <c r="D13" t="n">
-        <v>0.169542359368489</v>
+        <v>0.173858600090949</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.631117029339397</v>
+        <v>-0.636259784242753</v>
       </c>
       <c r="F13" t="n">
-        <v>0.239502888478887</v>
+        <v>0.244645643382243</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.767928730710841</v>
+        <v>-0.774687780012395</v>
       </c>
       <c r="H13" t="n">
-        <v>0.376314589850332</v>
+        <v>0.383073639151885</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -971,25 +971,25 @@
         <v>10.086581902672</v>
       </c>
       <c r="B14" t="n">
-        <v>3.12957693978908</v>
+        <v>3.19114704921039</v>
       </c>
       <c r="C14" t="n">
-        <v>4.93842783671897</v>
+        <v>4.83714500672092</v>
       </c>
       <c r="D14" t="n">
-        <v>15.234735968625</v>
+        <v>15.3360187986231</v>
       </c>
       <c r="E14" t="n">
-        <v>3.95261110068541</v>
+        <v>3.83193368621965</v>
       </c>
       <c r="F14" t="n">
-        <v>16.2205527046586</v>
+        <v>16.3412301191244</v>
       </c>
       <c r="G14" t="n">
-        <v>2.02479170577534</v>
+        <v>1.86618710390605</v>
       </c>
       <c r="H14" t="n">
-        <v>18.1483720995687</v>
+        <v>18.306976701438</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1012,25 +1012,25 @@
         <v>7.06728801169591</v>
       </c>
       <c r="B15" t="n">
-        <v>2.22675805700958</v>
+        <v>2.27273421075244</v>
       </c>
       <c r="C15" t="n">
-        <v>3.40427100791514</v>
+        <v>3.32864023500814</v>
       </c>
       <c r="D15" t="n">
-        <v>10.7303050154767</v>
+        <v>10.8059357883837</v>
       </c>
       <c r="E15" t="n">
-        <v>2.70284221995712</v>
+        <v>2.61272895862113</v>
       </c>
       <c r="F15" t="n">
-        <v>11.4317338034347</v>
+        <v>11.5218470647707</v>
       </c>
       <c r="G15" t="n">
-        <v>1.33115925683922</v>
+        <v>1.21272468479762</v>
       </c>
       <c r="H15" t="n">
-        <v>12.8034167665526</v>
+        <v>12.9218513385942</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1053,25 +1053,25 @@
         <v>7.30844066867635</v>
       </c>
       <c r="B16" t="n">
-        <v>4.80739072315272</v>
+        <v>4.47888348861793</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.599717070909869</v>
+        <v>-0.0593226701001468</v>
       </c>
       <c r="D16" t="n">
-        <v>15.2165984082626</v>
+        <v>14.6762040074528</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.11404514870297</v>
+        <v>-1.4701709690148</v>
       </c>
       <c r="F16" t="n">
-        <v>16.7309264860557</v>
+        <v>16.0870523063675</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.07539783416505</v>
+        <v>-4.22916319800344</v>
       </c>
       <c r="H16" t="n">
-        <v>19.6922791715177</v>
+        <v>18.8460445353561</v>
       </c>
       <c r="I16" t="s">
         <v>20</v>
@@ -1094,25 +1094,25 @@
         <v>-0.041015706349758</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02665949786828</v>
+        <v>0.0262810676051951</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0848705803430787</v>
+        <v>-0.084248062560304</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00283916764356267</v>
+        <v>0.00221664986078798</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0932683221715869</v>
+        <v>-0.0925265988559404</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0112369094720709</v>
+        <v>0.0104951861564244</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.109690572858447</v>
+        <v>-0.108715736500741</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0276591601589314</v>
+        <v>0.0266843238012246</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
@@ -1135,25 +1135,25 @@
         <v>-0.00662872305636531</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0290905172218003</v>
+        <v>0.0280236229442032</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0544826238862269</v>
+        <v>-0.0527275827995796</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0412251777734963</v>
+        <v>0.039470136686849</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.063646136811094</v>
+        <v>-0.0615550240270036</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0503886906983634</v>
+        <v>0.048297577914273</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.081565895419723</v>
+        <v>-0.0788175757606328</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0683084493069924</v>
+        <v>0.0655601296479021</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
@@ -1176,25 +1176,25 @@
         <v>-0.00899435021949099</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0548888828702352</v>
+        <v>0.0552512761247942</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0992865625410279</v>
+        <v>-0.0998826994447775</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0812978621020459</v>
+        <v>0.0818939990057955</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.116576560645152</v>
+        <v>-0.117286851424088</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09858786020617</v>
+        <v>0.0992981509851057</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.150388112493217</v>
+        <v>-0.151321637516961</v>
       </c>
       <c r="H19" t="n">
-        <v>0.132399412054235</v>
+        <v>0.133332937077979</v>
       </c>
       <c r="I19" t="s">
         <v>20</v>
@@ -1217,25 +1217,25 @@
         <v>0.346797645194158</v>
       </c>
       <c r="B20" t="n">
-        <v>0.121707340051541</v>
+        <v>0.12544302926067</v>
       </c>
       <c r="C20" t="n">
-        <v>0.146589070809374</v>
+        <v>0.140443862060355</v>
       </c>
       <c r="D20" t="n">
-        <v>0.547006219578943</v>
+        <v>0.553151428327961</v>
       </c>
       <c r="E20" t="n">
-        <v>0.108251258693138</v>
+        <v>0.100929307843244</v>
       </c>
       <c r="F20" t="n">
-        <v>0.585344031695178</v>
+        <v>0.592665982545072</v>
       </c>
       <c r="G20" t="n">
-        <v>0.033279537221389</v>
+        <v>0.0236564018186711</v>
       </c>
       <c r="H20" t="n">
-        <v>0.660315753166928</v>
+        <v>0.669938888569645</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -1258,25 +1258,25 @@
         <v>0.230227126682986</v>
       </c>
       <c r="B21" t="n">
-        <v>0.106455825547459</v>
+        <v>0.100279838084128</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0551072936574168</v>
+        <v>0.0652667930345955</v>
       </c>
       <c r="D21" t="n">
-        <v>0.405346959708556</v>
+        <v>0.395187460331377</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0215737086099673</v>
+        <v>0.0336786440380951</v>
       </c>
       <c r="F21" t="n">
-        <v>0.438880544756006</v>
+        <v>0.426775609327878</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0440030799272673</v>
+        <v>-0.0280937362217279</v>
       </c>
       <c r="H21" t="n">
-        <v>0.50445733329324</v>
+        <v>0.488547989587701</v>
       </c>
       <c r="I21" t="s">
         <v>28</v>
@@ -1299,25 +1299,25 @@
         <v>0.156037010777085</v>
       </c>
       <c r="B22" t="n">
-        <v>0.426795136448546</v>
+        <v>0.435305092817654</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.546040988680774</v>
+        <v>-0.560039866907956</v>
       </c>
       <c r="D22" t="n">
-        <v>0.858115010234943</v>
+        <v>0.872113888462126</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.680481456662066</v>
+        <v>-0.697160971145518</v>
       </c>
       <c r="F22" t="n">
-        <v>0.992555478216235</v>
+        <v>1.00923499269969</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.943387260714371</v>
+        <v>-0.965308908321193</v>
       </c>
       <c r="H22" t="n">
-        <v>1.25546128226854</v>
+        <v>1.27738292987536</v>
       </c>
       <c r="I22" t="s">
         <v>20</v>
@@ -1340,25 +1340,25 @@
         <v>1.10516272792895</v>
       </c>
       <c r="B23" t="n">
-        <v>0.174086235035215</v>
+        <v>0.163497674273032</v>
       </c>
       <c r="C23" t="n">
-        <v>0.818790871296017</v>
+        <v>0.836209053749807</v>
       </c>
       <c r="D23" t="n">
-        <v>1.39153458456187</v>
+        <v>1.37411640210808</v>
       </c>
       <c r="E23" t="n">
-        <v>0.763953707259925</v>
+        <v>0.784707286353802</v>
       </c>
       <c r="F23" t="n">
-        <v>1.44637174859797</v>
+        <v>1.42561816950409</v>
       </c>
       <c r="G23" t="n">
-        <v>0.656716586478232</v>
+        <v>0.683992719001614</v>
       </c>
       <c r="H23" t="n">
-        <v>1.55360886937966</v>
+        <v>1.52633273685628</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -1381,25 +1381,25 @@
         <v>0.650975342204416</v>
       </c>
       <c r="B24" t="n">
-        <v>0.246150230055153</v>
+        <v>0.249040125950054</v>
       </c>
       <c r="C24" t="n">
-        <v>0.246058213763689</v>
+        <v>0.241304335016577</v>
       </c>
       <c r="D24" t="n">
-        <v>1.05589247064514</v>
+        <v>1.06064634939226</v>
       </c>
       <c r="E24" t="n">
-        <v>0.168520891296316</v>
+        <v>0.162856695342311</v>
       </c>
       <c r="F24" t="n">
-        <v>1.13342979311252</v>
+        <v>1.13909398906652</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0168923495823414</v>
+        <v>0.00944797775707718</v>
       </c>
       <c r="H24" t="n">
-        <v>1.28505833482649</v>
+        <v>1.29250270665176</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -1422,25 +1422,25 @@
         <v>0.561342592592593</v>
       </c>
       <c r="B25" t="n">
-        <v>0.156689948006126</v>
+        <v>0.163146700369651</v>
       </c>
       <c r="C25" t="n">
-        <v>0.303587628122516</v>
+        <v>0.292966270484517</v>
       </c>
       <c r="D25" t="n">
-        <v>0.81909755706267</v>
+        <v>0.829718914700668</v>
       </c>
       <c r="E25" t="n">
-        <v>0.254230294500586</v>
+        <v>0.241575059868077</v>
       </c>
       <c r="F25" t="n">
-        <v>0.868454890684599</v>
+        <v>0.881110125317108</v>
       </c>
       <c r="G25" t="n">
-        <v>0.157709286528812</v>
+        <v>0.141076692440373</v>
       </c>
       <c r="H25" t="n">
-        <v>0.964975898656373</v>
+        <v>0.981608492744812</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>

--- a/Output_code/Data/Appendix_H_3plus_granted.xlsx
+++ b/Output_code/Data/Appendix_H_3plus_granted.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">***</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group1</t>
+    <t xml:space="preserve">Q1</t>
   </si>
   <si>
     <t xml:space="preserve">Relatedness_Cos2</t>
@@ -68,40 +68,40 @@
     <t xml:space="preserve">non_standard</t>
   </si>
   <si>
+    <t xml:space="preserve">NoPatentsYearGUOtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specializations_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueCodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueSubclass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Herfindahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIcodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**</t>
+  </si>
+  <si>
     <t xml:space="preserve">*</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoPatentsYearGUOtotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specializations_Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniqueCodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniqueSubclass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herfindahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIcodes</t>
+    <t xml:space="preserve">Q4</t>
   </si>
 </sst>
 </file>
@@ -479,25 +479,25 @@
         <v>3.54493087557604</v>
       </c>
       <c r="B2" t="n">
-        <v>1.03762852502675</v>
+        <v>1.03355410994664</v>
       </c>
       <c r="C2" t="n">
-        <v>1.83803195190704</v>
+        <v>1.84473436471381</v>
       </c>
       <c r="D2" t="n">
-        <v>5.25182979924504</v>
+        <v>5.24512738643826</v>
       </c>
       <c r="E2" t="n">
-        <v>1.51117896652361</v>
+        <v>1.51916482008062</v>
       </c>
       <c r="F2" t="n">
-        <v>5.57868278462846</v>
+        <v>5.57069693107145</v>
       </c>
       <c r="G2" t="n">
-        <v>0.871999795107135</v>
+        <v>0.882495488353487</v>
       </c>
       <c r="H2" t="n">
-        <v>6.21786195604494</v>
+        <v>6.20736626279859</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -517,37 +517,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.42617349970291</v>
+        <v>134.264714559207</v>
       </c>
       <c r="B3" t="n">
-        <v>0.835714645118019</v>
+        <v>41.8775863269386</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0514229084837696</v>
+        <v>65.3760850513925</v>
       </c>
       <c r="D3" t="n">
-        <v>2.80092409092205</v>
+        <v>203.153344067021</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.211827204728406</v>
+        <v>52.1846453584069</v>
       </c>
       <c r="F3" t="n">
-        <v>3.06417420413423</v>
+        <v>216.344783760006</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.726627426121107</v>
+        <v>26.3880521810126</v>
       </c>
       <c r="H3" t="n">
-        <v>3.57897442552693</v>
+        <v>242.141376937401</v>
       </c>
       <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -558,37 +558,37 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.415560358135227</v>
+        <v>4.58073627718671</v>
       </c>
       <c r="B4" t="n">
-        <v>1.20517042210756</v>
+        <v>1.01026423822147</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.5669449862317</v>
+        <v>2.91885160531239</v>
       </c>
       <c r="D4" t="n">
-        <v>2.39806570250216</v>
+        <v>6.24262094906102</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.94657366919558</v>
+        <v>2.60061837027263</v>
       </c>
       <c r="F4" t="n">
-        <v>2.77769438546604</v>
+        <v>6.56085418410078</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.68895864921384</v>
+        <v>1.9782955995282</v>
       </c>
       <c r="H4" t="n">
-        <v>3.52007936548429</v>
+        <v>7.18317695484521</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -599,28 +599,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>134.264714559207</v>
+        <v>0.593584613398735</v>
       </c>
       <c r="B5" t="n">
-        <v>39.824078206634</v>
+        <v>0.150500915365129</v>
       </c>
       <c r="C5" t="n">
-        <v>68.7541059092937</v>
+        <v>0.346010607623097</v>
       </c>
       <c r="D5" t="n">
-        <v>199.77532320912</v>
+        <v>0.841158619174373</v>
       </c>
       <c r="E5" t="n">
-        <v>56.209521274204</v>
+        <v>0.298602819283081</v>
       </c>
       <c r="F5" t="n">
-        <v>212.319907844209</v>
+        <v>0.888566407514389</v>
       </c>
       <c r="G5" t="n">
-        <v>31.6778890989174</v>
+        <v>0.205894255418162</v>
       </c>
       <c r="H5" t="n">
-        <v>236.851540019496</v>
+        <v>0.981274971379308</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -629,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -640,37 +640,37 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>62.8167358229599</v>
+        <v>10.086581902672</v>
       </c>
       <c r="B6" t="n">
-        <v>23.5157833399185</v>
+        <v>3.18202840732053</v>
       </c>
       <c r="C6" t="n">
-        <v>24.1332722287939</v>
+        <v>4.85214517262973</v>
       </c>
       <c r="D6" t="n">
-        <v>101.500199417126</v>
+        <v>15.3210186327143</v>
       </c>
       <c r="E6" t="n">
-        <v>16.7258004767196</v>
+        <v>3.84980622432376</v>
       </c>
       <c r="F6" t="n">
-        <v>108.9076711692</v>
+        <v>16.3233575810202</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2400779393298</v>
+        <v>1.88967672541431</v>
       </c>
       <c r="H6" t="n">
-        <v>123.39339370659</v>
+        <v>18.2834870799297</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -681,37 +681,37 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>53.462962962963</v>
+        <v>-0.041015706349758</v>
       </c>
       <c r="B7" t="n">
-        <v>35.6879896658795</v>
+        <v>0.0266471063371786</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.24378003740875</v>
+        <v>-0.0848501962744168</v>
       </c>
       <c r="D7" t="n">
-        <v>112.169705963335</v>
+        <v>0.00281878357490079</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.4854967821608</v>
+        <v>-0.093244034770628</v>
       </c>
       <c r="F7" t="n">
-        <v>123.411422708087</v>
+        <v>0.011212622071112</v>
       </c>
       <c r="G7" t="n">
-        <v>-38.4692984163425</v>
+        <v>-0.10965865227433</v>
       </c>
       <c r="H7" t="n">
-        <v>145.395224342268</v>
+        <v>0.0276272395748141</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -722,28 +722,28 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.58073627718671</v>
+        <v>0.346797645194158</v>
       </c>
       <c r="B8" t="n">
-        <v>1.03293781324959</v>
+        <v>0.127678370214024</v>
       </c>
       <c r="C8" t="n">
-        <v>2.88155357439113</v>
+        <v>0.136766726192089</v>
       </c>
       <c r="D8" t="n">
-        <v>6.27991897998228</v>
+        <v>0.556828564196228</v>
       </c>
       <c r="E8" t="n">
-        <v>2.55617816321751</v>
+        <v>0.0965480395746714</v>
       </c>
       <c r="F8" t="n">
-        <v>6.6052943911559</v>
+        <v>0.597047250813645</v>
       </c>
       <c r="G8" t="n">
-        <v>1.91988847025576</v>
+        <v>0.0178981635228326</v>
       </c>
       <c r="H8" t="n">
-        <v>7.24158408411765</v>
+        <v>0.675697126865484</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -752,7 +752,7 @@
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -763,37 +763,37 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.31263413936185</v>
+        <v>1.10516272792895</v>
       </c>
       <c r="B9" t="n">
-        <v>1.15818751350768</v>
+        <v>0.16527829569811</v>
       </c>
       <c r="C9" t="n">
-        <v>2.40741567964172</v>
+        <v>0.833279931505554</v>
       </c>
       <c r="D9" t="n">
-        <v>6.21785259908199</v>
+        <v>1.37704552435234</v>
       </c>
       <c r="E9" t="n">
-        <v>2.0425866128868</v>
+        <v>0.781217268360649</v>
       </c>
       <c r="F9" t="n">
-        <v>6.5826816658369</v>
+        <v>1.42910818749724</v>
       </c>
       <c r="G9" t="n">
-        <v>1.32914310456607</v>
+        <v>0.679405838210613</v>
       </c>
       <c r="H9" t="n">
-        <v>7.29612517415764</v>
+        <v>1.53091961764728</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -804,37 +804,37 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.547743055555555</v>
+        <v>1.42617349970291</v>
       </c>
       <c r="B10" t="n">
-        <v>2.86414216134032</v>
+        <v>0.903303183447275</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.16377079984927</v>
+        <v>-0.0597602370678556</v>
       </c>
       <c r="D10" t="n">
-        <v>5.25925691096038</v>
+        <v>2.91210723647368</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.06597558067147</v>
+        <v>-0.344300739853747</v>
       </c>
       <c r="F10" t="n">
-        <v>6.16146169178258</v>
+        <v>3.19664773925957</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.83028715205711</v>
+        <v>-0.900735500857269</v>
       </c>
       <c r="H10" t="n">
-        <v>7.92577326316822</v>
+        <v>3.75308250026309</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -845,37 +845,37 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.593584613398735</v>
+        <v>62.8167358229599</v>
       </c>
       <c r="B11" t="n">
-        <v>0.146719682451499</v>
+        <v>24.8617046270241</v>
       </c>
       <c r="C11" t="n">
-        <v>0.35223073576602</v>
+        <v>21.9192317115053</v>
       </c>
       <c r="D11" t="n">
-        <v>0.83493849103145</v>
+        <v>103.714239934414</v>
       </c>
       <c r="E11" t="n">
-        <v>0.306014035793798</v>
+        <v>14.0877947539927</v>
       </c>
       <c r="F11" t="n">
-        <v>0.881155191003672</v>
+        <v>111.545676891927</v>
       </c>
       <c r="G11" t="n">
-        <v>0.215634711403674</v>
+        <v>-1.22701529625412</v>
       </c>
       <c r="H11" t="n">
-        <v>0.971534515393796</v>
+        <v>126.860486942174</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -886,37 +886,37 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.439181286549708</v>
+        <v>4.31263413936185</v>
       </c>
       <c r="B12" t="n">
-        <v>0.237548712183368</v>
+        <v>1.14694211715694</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0484136550080667</v>
+        <v>2.42591435663868</v>
       </c>
       <c r="D12" t="n">
-        <v>0.829948918091349</v>
+        <v>6.19935392208503</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0264141893296943</v>
+        <v>2.06462758973424</v>
       </c>
       <c r="F12" t="n">
-        <v>0.90477676242911</v>
+        <v>6.56064068898946</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.172744196034649</v>
+        <v>1.35811124556557</v>
       </c>
       <c r="H12" t="n">
-        <v>1.05110676913406</v>
+        <v>7.26715703315814</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
         <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -927,37 +927,37 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.195807070430255</v>
+        <v>0.439181286549708</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224720772353315</v>
+        <v>0.239735019343245</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.565472740951458</v>
+        <v>0.044817179730069</v>
       </c>
       <c r="D13" t="n">
-        <v>0.173858600090949</v>
+        <v>0.833545393369346</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.636259784242753</v>
+        <v>-0.0306993513630532</v>
       </c>
       <c r="F13" t="n">
-        <v>0.244645643382243</v>
+        <v>0.909061924462468</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.774687780012395</v>
+        <v>-0.178376123278492</v>
       </c>
       <c r="H13" t="n">
-        <v>0.383073639151885</v>
+        <v>1.05673869637791</v>
       </c>
       <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
         <v>20</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" t="s">
-        <v>24</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -968,37 +968,37 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10.086581902672</v>
+        <v>7.06728801169591</v>
       </c>
       <c r="B14" t="n">
-        <v>3.19114704921039</v>
+        <v>2.19019954684747</v>
       </c>
       <c r="C14" t="n">
-        <v>4.83714500672092</v>
+        <v>3.46440975713182</v>
       </c>
       <c r="D14" t="n">
-        <v>15.3360187986231</v>
+        <v>10.67016626626</v>
       </c>
       <c r="E14" t="n">
-        <v>3.83193368621965</v>
+        <v>2.77449689987487</v>
       </c>
       <c r="F14" t="n">
-        <v>16.3412301191244</v>
+        <v>11.3600791235169</v>
       </c>
       <c r="G14" t="n">
-        <v>1.86618710390605</v>
+        <v>1.42533397901683</v>
       </c>
       <c r="H14" t="n">
-        <v>18.306976701438</v>
+        <v>12.709242044375</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1009,37 +1009,37 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7.06728801169591</v>
+        <v>-0.00662872305636531</v>
       </c>
       <c r="B15" t="n">
-        <v>2.27273421075244</v>
+        <v>0.0288260205346815</v>
       </c>
       <c r="C15" t="n">
-        <v>3.32864023500814</v>
+        <v>-0.0540475268359163</v>
       </c>
       <c r="D15" t="n">
-        <v>10.8059357883837</v>
+        <v>0.0407900807231857</v>
       </c>
       <c r="E15" t="n">
-        <v>2.61272895862113</v>
+        <v>-0.063127723304341</v>
       </c>
       <c r="F15" t="n">
-        <v>11.5218470647707</v>
+        <v>0.0498702771916104</v>
       </c>
       <c r="G15" t="n">
-        <v>1.21272468479762</v>
+        <v>-0.0808845519537048</v>
       </c>
       <c r="H15" t="n">
-        <v>12.9218513385942</v>
+        <v>0.0676271058409742</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1050,37 +1050,37 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7.30844066867635</v>
+        <v>0.230227126682986</v>
       </c>
       <c r="B16" t="n">
-        <v>4.47888348861793</v>
+        <v>0.113606938468165</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0593226701001468</v>
+        <v>0.0433437129028551</v>
       </c>
       <c r="D16" t="n">
-        <v>14.6762040074528</v>
+        <v>0.417110540463118</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.4701709690148</v>
+        <v>0.0075575272853832</v>
       </c>
       <c r="F16" t="n">
-        <v>16.0870523063675</v>
+        <v>0.45289672608059</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.22916319800344</v>
+        <v>-0.0624243468110064</v>
       </c>
       <c r="H16" t="n">
-        <v>18.8460445353561</v>
+        <v>0.522878600176979</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1091,37 +1091,37 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.041015706349758</v>
+        <v>0.650975342204416</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0262810676051951</v>
+        <v>0.253334422215856</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.084248062560304</v>
+        <v>0.234240217659333</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00221664986078798</v>
+        <v>1.0677104667495</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0925265988559404</v>
+        <v>0.154439874661338</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0104951861564244</v>
+        <v>1.14751080974749</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.108715736500741</v>
+        <v>-0.00161412942362904</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0266843238012246</v>
+        <v>1.30356481383246</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1132,37 +1132,37 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.00662872305636531</v>
+        <v>0.415560358135227</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0280236229442032</v>
+        <v>1.23563033192791</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0527275827995796</v>
+        <v>-1.61705153788619</v>
       </c>
       <c r="D18" t="n">
-        <v>0.039470136686849</v>
+        <v>2.44817225415665</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0615550240270036</v>
+        <v>-2.00627509244349</v>
       </c>
       <c r="F18" t="n">
-        <v>0.048297577914273</v>
+        <v>2.83739580871394</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0788175757606328</v>
+        <v>-2.76742337691108</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0655601296479021</v>
+        <v>3.59854409318153</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1173,37 +1173,37 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.00899435021949099</v>
+        <v>53.462962962963</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0552512761247942</v>
+        <v>32.223126736215</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0998826994447775</v>
+        <v>0.455919481889254</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0818939990057955</v>
+        <v>106.470006444037</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.117286851424088</v>
+        <v>-9.69436544001848</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0992981509851057</v>
+        <v>116.620291365944</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.151321637516961</v>
+        <v>-29.5438115095269</v>
       </c>
       <c r="H19" t="n">
-        <v>0.133332937077979</v>
+        <v>136.469737435453</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1214,37 +1214,37 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.346797645194158</v>
+        <v>0.547743055555555</v>
       </c>
       <c r="B20" t="n">
-        <v>0.12544302926067</v>
+        <v>2.85400941957943</v>
       </c>
       <c r="C20" t="n">
-        <v>0.140443862060355</v>
+        <v>-4.1471024396526</v>
       </c>
       <c r="D20" t="n">
-        <v>0.553151428327961</v>
+        <v>5.24258855076371</v>
       </c>
       <c r="E20" t="n">
-        <v>0.100929307843244</v>
+        <v>-5.04611540682012</v>
       </c>
       <c r="F20" t="n">
-        <v>0.592665982545072</v>
+        <v>6.14160151793123</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0236564018186711</v>
+        <v>-6.80418520928105</v>
       </c>
       <c r="H20" t="n">
-        <v>0.669938888569645</v>
+        <v>7.89967132039216</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1255,37 +1255,37 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.230227126682986</v>
+        <v>-0.195807070430255</v>
       </c>
       <c r="B21" t="n">
-        <v>0.100279838084128</v>
+        <v>0.225367779547663</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0652667930345955</v>
+        <v>-0.56653706778616</v>
       </c>
       <c r="D21" t="n">
-        <v>0.395187460331377</v>
+        <v>0.174922926925651</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0336786440380951</v>
+        <v>-0.637527918343674</v>
       </c>
       <c r="F21" t="n">
-        <v>0.426775609327878</v>
+        <v>0.245913777483164</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0280937362217279</v>
+        <v>-0.776354470545034</v>
       </c>
       <c r="H21" t="n">
-        <v>0.488547989587701</v>
+        <v>0.384740329684525</v>
       </c>
       <c r="I21" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1296,37 +1296,37 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.156037010777085</v>
+        <v>7.30844066867635</v>
       </c>
       <c r="B22" t="n">
-        <v>0.435305092817654</v>
+        <v>4.5801355910781</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.560039866907956</v>
+        <v>-0.225882378647128</v>
       </c>
       <c r="D22" t="n">
-        <v>0.872113888462126</v>
+        <v>14.8427637159998</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.697160971145518</v>
+        <v>-1.66862508983673</v>
       </c>
       <c r="F22" t="n">
-        <v>1.00923499269969</v>
+        <v>16.2855064271894</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.965308908321193</v>
+        <v>-4.48998861394084</v>
       </c>
       <c r="H22" t="n">
-        <v>1.27738292987536</v>
+        <v>19.1068699512935</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
         <v>21</v>
-      </c>
-      <c r="K22" t="s">
-        <v>27</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1337,37 +1337,37 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.10516272792895</v>
+        <v>-0.00899435021949099</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163497674273032</v>
+        <v>0.0502912500560861</v>
       </c>
       <c r="C23" t="n">
-        <v>0.836209053749807</v>
+        <v>-0.0917234565617525</v>
       </c>
       <c r="D23" t="n">
-        <v>1.37411640210808</v>
+        <v>0.0737347561227706</v>
       </c>
       <c r="E23" t="n">
-        <v>0.784707286353802</v>
+        <v>-0.10756520032942</v>
       </c>
       <c r="F23" t="n">
-        <v>1.42561816950409</v>
+        <v>0.0895764998904377</v>
       </c>
       <c r="G23" t="n">
-        <v>0.683992719001614</v>
+        <v>-0.138544610363969</v>
       </c>
       <c r="H23" t="n">
-        <v>1.52633273685628</v>
+        <v>0.120555909924987</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1378,37 +1378,37 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.650975342204416</v>
+        <v>0.156037010777085</v>
       </c>
       <c r="B24" t="n">
-        <v>0.249040125950054</v>
+        <v>0.408812773653571</v>
       </c>
       <c r="C24" t="n">
-        <v>0.241304335016577</v>
+        <v>-0.516460001883039</v>
       </c>
       <c r="D24" t="n">
-        <v>1.06064634939226</v>
+        <v>0.828534023437208</v>
       </c>
       <c r="E24" t="n">
-        <v>0.162856695342311</v>
+        <v>-0.645236025583914</v>
       </c>
       <c r="F24" t="n">
-        <v>1.13909398906652</v>
+        <v>0.957310047138083</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00944797775707718</v>
+        <v>-0.897064694154514</v>
       </c>
       <c r="H24" t="n">
-        <v>1.29250270665176</v>
+        <v>1.20913871570868</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1422,34 +1422,34 @@
         <v>0.561342592592593</v>
       </c>
       <c r="B25" t="n">
-        <v>0.163146700369651</v>
+        <v>0.159113961005105</v>
       </c>
       <c r="C25" t="n">
-        <v>0.292966270484517</v>
+        <v>0.299600126739195</v>
       </c>
       <c r="D25" t="n">
-        <v>0.829718914700668</v>
+        <v>0.823085058445991</v>
       </c>
       <c r="E25" t="n">
-        <v>0.241575059868077</v>
+        <v>0.249479229022587</v>
       </c>
       <c r="F25" t="n">
-        <v>0.881110125317108</v>
+        <v>0.873205956162599</v>
       </c>
       <c r="G25" t="n">
-        <v>0.141076692440373</v>
+        <v>0.151465029043442</v>
       </c>
       <c r="H25" t="n">
-        <v>0.981608492744812</v>
+        <v>0.971220156141743</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
